--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -67,12 +67,15 @@
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -100,85 +103,106 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -536,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7602739726027398</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -705,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6176470588235294</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -755,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5945945945945946</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,16 +800,16 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -823,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L7">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>31</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5789473684210527</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L8">
         <v>30</v>
       </c>
-      <c r="K8">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
       <c r="M8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4391534391534391</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4313725490196079</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4011627906976744</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C11">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D11">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3154362416107382</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2933333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7578125</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.126984126984127</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.08310991957104558</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7708333333333334</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01715210355987055</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3037</v>
+        <v>336</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,37 +1329,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01039697542533081</v>
+        <v>0.01915584415584416</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E17">
-        <v>0.55</v>
+        <v>0.31</v>
       </c>
       <c r="F17">
-        <v>0.45</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2094</v>
+        <v>3021</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,37 +1379,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007310870947234584</v>
+        <v>0.01272984441301273</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>0.71</v>
+        <v>0.45</v>
       </c>
       <c r="F18">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3123</v>
+        <v>2094</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7625</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,21 +1421,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.007974481658692184</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>91</v>
+      </c>
+      <c r="E19">
+        <v>0.73</v>
+      </c>
+      <c r="F19">
+        <v>0.27</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3110</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L23">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6150627615062761</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,47 +1653,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6054421768707483</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L27">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.4831460674157304</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.3974358974358974</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1735,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.3835616438356164</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,59 +1809,267 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.01730648206419132</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>3123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="L34">
         <v>22</v>
       </c>
-      <c r="K34">
-        <v>0.01272984441301273</v>
-      </c>
-      <c r="L34">
+      <c r="M34">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>29</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>0.95</v>
+      </c>
+      <c r="O39">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40">
+        <v>0.0207808564231738</v>
+      </c>
+      <c r="L40">
+        <v>66</v>
+      </c>
+      <c r="M40">
+        <v>91</v>
+      </c>
+      <c r="N40">
+        <v>0.73</v>
+      </c>
+      <c r="O40">
+        <v>0.27</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41">
+        <v>0.01039697542533081</v>
+      </c>
+      <c r="L41">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>49</v>
+      </c>
+      <c r="N41">
+        <v>0.45</v>
+      </c>
+      <c r="O41">
+        <v>0.55</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <v>0.008858267716535433</v>
+      </c>
+      <c r="L42">
         <v>27</v>
       </c>
-      <c r="M34">
-        <v>49</v>
-      </c>
-      <c r="N34">
-        <v>0.55</v>
-      </c>
-      <c r="O34">
-        <v>0.45</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>2094</v>
+      <c r="M42">
+        <v>86</v>
+      </c>
+      <c r="N42">
+        <v>0.31</v>
+      </c>
+      <c r="O42">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3021</v>
       </c>
     </row>
   </sheetData>
